--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41E71FD-0F23-409F-ABC3-3C773A4664BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E433D7-9BB0-4F35-8762-5E407C64F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>CoInvest</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Series C1</t>
   </si>
 </sst>
 </file>
@@ -458,21 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="13.1875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -480,136 +496,180 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
         <v>22500</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
         <v>1800000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
         <v>2800000</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
         <v>15000</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
         <v>3000000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E433D7-9BB0-4F35-8762-5E407C64F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6545AF-E82B-4D6C-BFA7-5524FFF104B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -87,9 +87,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Pool</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>Series C1</t>
+  </si>
+  <si>
+    <t>Commitment Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type * </t>
   </si>
 </sst>
 </file>
@@ -152,10 +155,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="J3" sqref="J3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -486,9 +490,10 @@
     <col min="3" max="3" width="13.1875" customWidth="1"/>
     <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -516,8 +521,11 @@
       <c r="I1" t="s">
         <v>14</v>
       </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -525,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>22500</v>
@@ -542,8 +550,11 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="3">
+        <v>44946</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -551,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>1800000</v>
@@ -568,8 +579,11 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="3">
+        <v>44946</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -577,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>2800000</v>
@@ -594,8 +608,11 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
+      <c r="J4" s="3">
+        <v>44946</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -603,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>15000</v>
@@ -620,8 +637,11 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="J5" s="3">
+        <v>44946</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -629,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>3000000</v>
@@ -646,8 +666,11 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
+      <c r="J6" s="3">
+        <v>44946</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -655,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>1000000</v>
@@ -664,13 +687,16 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="J7" s="3">
+        <v>44946</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6545AF-E82B-4D6C-BFA7-5524FFF104B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D8FBF-ED5D-48FB-8B6F-80BC2021EF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t xml:space="preserve">Type * </t>
+  </si>
+  <si>
+    <t>From Currency</t>
+  </si>
+  <si>
+    <t>To Currency</t>
+  </si>
+  <si>
+    <t>As Of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate </t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J7"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -491,9 +503,13 @@
     <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -524,8 +540,20 @@
       <c r="J1" t="s">
         <v>22</v>
       </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,10 +579,22 @@
         <v>13</v>
       </c>
       <c r="J2" s="3">
-        <v>44946</v>
+        <v>44216</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44216</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -580,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="J3" s="3">
-        <v>44946</v>
+        <v>44216</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -609,10 +649,10 @@
         <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>44946</v>
+        <v>44216</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -638,10 +678,22 @@
         <v>13</v>
       </c>
       <c r="J5" s="3">
-        <v>44946</v>
+        <v>44216</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+      <c r="N5" s="3">
+        <v>44216</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -667,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="J6" s="3">
-        <v>44946</v>
+        <v>44216</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -696,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="3">
-        <v>44946</v>
+        <v>44216</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D8FBF-ED5D-48FB-8B6F-80BC2021EF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF20A6A3-A224-4655-9940-7F7D515E81D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t xml:space="preserve">Exchange Rate </t>
+  </si>
+  <si>
+    <t>Onboarding Completed</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -502,14 +508,14 @@
     <col min="3" max="3" width="13.1875" customWidth="1"/>
     <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -535,25 +541,28 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -578,23 +587,26 @@
       <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="3">
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3">
         <v>44216</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>80</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -619,11 +631,14 @@
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3">
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -648,11 +663,14 @@
       <c r="H4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -677,23 +695,26 @@
       <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="3">
         <v>44216</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>80</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -718,11 +739,14 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -747,7 +771,10 @@
       <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="3">
         <v>44216</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF20A6A3-A224-4655-9940-7F7D515E81D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA102629-6B31-4C7C-96E5-9F78D79CDEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA102629-6B31-4C7C-96E5-9F78D79CDEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B3D273-4D65-44BC-99C7-E13D7202E7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>KYC Full Name</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +518,7 @@
     <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -561,8 +564,11 @@
       <c r="O1" t="s">
         <v>26</v>
       </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -606,7 +612,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -638,7 +644,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +676,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -714,7 +720,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -746,7 +752,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B3D273-4D65-44BC-99C7-E13D7202E7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45183490-2F75-47FC-99B5-2929E5B90D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>KYC Full Name</t>
+  </si>
+  <si>
+    <t>Investor 5</t>
+  </si>
+  <si>
+    <t>Investor 6</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -784,6 +790,70 @@
         <v>44216</v>
       </c>
     </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45183490-2F75-47FC-99B5-2929E5B90D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54D412-FAAE-49BD-BE63-20BD6792A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>Investor 6</t>
+  </si>
+  <si>
+    <t>Investor Signatory Emails</t>
+  </si>
+  <si>
+    <t>signatory1@gmail.com,signatory2@gmail.com</t>
+  </si>
+  <si>
+    <t>signatory2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L1" sqref="L1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -517,14 +526,14 @@
     <col min="3" max="3" width="13.1875" customWidth="1"/>
     <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -559,22 +568,25 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -605,20 +617,23 @@
       <c r="K2" s="3">
         <v>44216</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>80</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -649,8 +664,11 @@
       <c r="K3" s="3">
         <v>44216</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -681,8 +699,11 @@
       <c r="K4" s="3">
         <v>44216</v>
       </c>
+      <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -713,20 +734,23 @@
       <c r="K5" s="3">
         <v>44216</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>15</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>80</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>44216</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -757,8 +781,11 @@
       <c r="K6" s="3">
         <v>44216</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -789,8 +816,11 @@
       <c r="K7" s="3">
         <v>44216</v>
       </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -821,8 +851,11 @@
       <c r="K8" s="3">
         <v>44216</v>
       </c>
+      <c r="L8" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -852,6 +885,9 @@
       </c>
       <c r="K9" s="3">
         <v>44216</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54D412-FAAE-49BD-BE63-20BD6792A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536A35A-5936-4EC0-8C3B-49C07061564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>signatory2@gmail.com</t>
+  </si>
+  <si>
+    <t>Update Only</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L9"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +539,7 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -585,8 +591,11 @@
       <c r="Q1" t="s">
         <v>30</v>
       </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -632,8 +641,11 @@
       <c r="P2" s="3">
         <v>44216</v>
       </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -667,8 +679,11 @@
       <c r="L3" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,8 +717,11 @@
       <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -749,8 +767,11 @@
       <c r="P5" s="3">
         <v>44216</v>
       </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -784,8 +805,11 @@
       <c r="L6" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -819,8 +843,11 @@
       <c r="L7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -854,8 +881,11 @@
       <c r="L8" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -888,6 +918,9 @@
       </c>
       <c r="L9" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536A35A-5936-4EC0-8C3B-49C07061564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645FDDE-B012-467D-870A-C8B97553B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R9"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7645FDDE-B012-467D-870A-C8B97553B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2442A02-5AAC-41DA-BCA9-486CF26AA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>KYC Full Name</t>
-  </si>
-  <si>
     <t>Investor 5</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>KYC Investing Entity</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -574,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
@@ -589,10 +589,10 @@
         <v>26</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -627,7 +627,7 @@
         <v>44216</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -642,7 +642,7 @@
         <v>44216</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -677,10 +677,10 @@
         <v>44216</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -715,10 +715,10 @@
         <v>44216</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>44216</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -768,7 +768,7 @@
         <v>44216</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -803,10 +803,10 @@
         <v>44216</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -841,15 +841,15 @@
         <v>44216</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -879,15 +879,15 @@
         <v>44216</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>44216</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2442A02-5AAC-41DA-BCA9-486CF26AA0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0FA6E-6297-4979-95A0-D0E3E621BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>KYC Investing Entity</t>
+  </si>
+  <si>
+    <t>CF1</t>
+  </si>
+  <si>
+    <t>CF2</t>
+  </si>
+  <si>
+    <t>CF3</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +548,7 @@
     <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -594,8 +603,17 @@
       <c r="R1" t="s">
         <v>35</v>
       </c>
+      <c r="S1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -644,8 +662,11 @@
       <c r="R2" t="s">
         <v>36</v>
       </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -682,8 +703,11 @@
       <c r="R3" t="s">
         <v>36</v>
       </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -720,8 +744,11 @@
       <c r="R4" t="s">
         <v>36</v>
       </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -770,8 +797,11 @@
       <c r="R5" t="s">
         <v>36</v>
       </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -808,8 +838,11 @@
       <c r="R6" t="s">
         <v>36</v>
       </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -846,8 +879,11 @@
       <c r="R7" t="s">
         <v>36</v>
       </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -884,8 +920,11 @@
       <c r="R8" t="s">
         <v>36</v>
       </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -921,6 +960,9 @@
       </c>
       <c r="R9" t="s">
         <v>36</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC0FA6E-6297-4979-95A0-D0E3E621BC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA6BC7-65CA-4C46-BA41-3E8D88799FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>SAAS Fund</t>
   </si>
@@ -147,13 +147,37 @@
     <t>KYC Investing Entity</t>
   </si>
   <si>
-    <t>CF1</t>
-  </si>
-  <si>
-    <t>CF2</t>
-  </si>
-  <si>
-    <t>CF3</t>
+    <t>CF 1</t>
+  </si>
+  <si>
+    <t>CF 2</t>
+  </si>
+  <si>
+    <t>CF 3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -531,7 +555,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="U2" sqref="U2:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -665,6 +689,12 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -706,6 +736,12 @@
       <c r="S3">
         <v>2</v>
       </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3">
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -747,6 +783,12 @@
       <c r="S4">
         <v>3</v>
       </c>
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -800,6 +842,12 @@
       <c r="S5">
         <v>4</v>
       </c>
+      <c r="T5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5">
+        <v>400</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -841,6 +889,12 @@
       <c r="S6">
         <v>5</v>
       </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -882,6 +936,12 @@
       <c r="S7">
         <v>6</v>
       </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7">
+        <v>600</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -923,6 +983,12 @@
       <c r="S8">
         <v>7</v>
       </c>
+      <c r="T8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U8">
+        <v>700</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -963,6 +1029,12 @@
       </c>
       <c r="S9">
         <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C49A4AE-0E5E-4B62-B93C-F73A9542C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B589E0B-6614-49F2-B812-19340A6EA62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalCommitment" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>Investor *</t>
   </si>
@@ -210,18 +210,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>CoInvest</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Series C1</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Investor 5</t>
@@ -542,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -573,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -897,27 +885,27 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="A7" t="s">
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
+      <c r="G7">
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>25</v>
@@ -929,24 +917,24 @@
         <v>44216</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="S7" t="s">
         <v>29</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V7">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -962,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
@@ -983,18 +971,18 @@
         <v>29</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V8">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>46</v>
+      <c r="A9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1010,13 +998,13 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
@@ -1034,57 +1022,9 @@
         <v>8</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10">
         <v>800</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_commitments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B589E0B-6614-49F2-B812-19340A6EA62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9690CF-DE97-464F-BD88-EEAC8C107CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <author>thimm</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{26085C54-3573-4315-BC5A-5A4BCF272F2C}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{26085C54-3573-4315-BC5A-5A4BCF272F2C}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{7DEE8BA9-3ED6-466D-93E0-A191C492DBCB}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{7DEE8BA9-3ED6-466D-93E0-A191C492DBCB}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Investor *</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Fund *</t>
   </si>
   <si>
-    <t xml:space="preserve">Type * </t>
-  </si>
-  <si>
     <t>Folio Currency *</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>SAAS Fund</t>
-  </si>
-  <si>
-    <t>Pool</t>
   </si>
   <si>
     <t>USD</t>
@@ -530,41 +524,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="3" width="13.1875" customWidth="1"/>
-    <col min="4" max="4" width="32.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="12" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="10.6875" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.1875" customWidth="1"/>
+    <col min="3" max="3" width="32.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+    <col min="14" max="14" width="10.6875" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -614,417 +608,390 @@
       <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22500</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>80</v>
+      </c>
+      <c r="P2" s="3">
+        <v>44216</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>22500</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K5" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>80</v>
+      </c>
+      <c r="P5" s="3">
+        <v>44216</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44216</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3">
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3">
         <v>44216</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="3">
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3">
         <v>44216</v>
       </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2">
-        <v>100</v>
+      <c r="L8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8">
+        <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K9" s="3">
         <v>44216</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2800000</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>44216</v>
-      </c>
-      <c r="S5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7">
-        <v>7</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="T9" t="s">
         <v>41</v>
       </c>
-      <c r="V7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
-      <c r="U8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="3">
-        <v>44216</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9">
+      <c r="U9">
         <v>800</v>
       </c>
     </row>
